--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162339E-4794-49BB-9AEE-76C02A2F7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68679602-20B2-442B-AE26-674B82E2BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -507,12 +507,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>bf_lf_pretas_202404_3_Resultats</t>
-  </si>
-  <si>
-    <t>(BF - Apr 2024) Pré TAS FL - 3. Formulaire Résultats V2</t>
-  </si>
-  <si>
     <t>Bittou</t>
   </si>
   <si>
@@ -576,13 +570,19 @@
     <t>Niorgho</t>
   </si>
   <si>
-    <t>Lot1:239299W_Exp28_05_2024</t>
-  </si>
-  <si>
-    <t>Lot1: 239299W_Exp28_05_2024</t>
-  </si>
-  <si>
     <t>Ouada traditionnel</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_202404_3_Resultats_v2_1</t>
+  </si>
+  <si>
+    <t>(BF - Apr 2024) Pré TAS FL - 3. Formulaire Résultats V2.1</t>
+  </si>
+  <si>
+    <t>Lot1: 238429 Exp : 30/05/2024</t>
+  </si>
+  <si>
+    <t>Lot2: 766673A Exp : 10/08/2024</t>
   </si>
 </sst>
 </file>
@@ -693,9 +693,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -729,6 +726,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1192,164 +1190,164 @@
     <col min="11" max="11" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="37.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="37.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="15.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="A6" s="13" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" s="2" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="15.75">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.75">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
@@ -1358,24 +1356,24 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="15.75">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.75">
+      <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D9" t="s">
@@ -1384,311 +1382,311 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:13" s="2" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="J10" s="3" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:13" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:13" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:13" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:13" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="H16" s="17" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:12" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:12" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="17" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:12" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:12" s="2" customFormat="1">
+      <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="16" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1">
-      <c r="A24" s="3" t="s">
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:12" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:12" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1"/>
+    <row r="27" spans="1:12" s="2" customFormat="1"/>
     <row r="34" spans="2:2">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,686 +1696,697 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E32"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="34" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A33" s="6"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="15.75">
-      <c r="A33" s="7"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="2">
         <v>2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2431,34 +2440,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="56" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>160</v>
       </c>
     </row>

--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68679602-20B2-442B-AE26-674B82E2BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1ACD9E-000E-46D3-B150-D7937A666FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,28 +573,35 @@
     <t>Ouada traditionnel</t>
   </si>
   <si>
-    <t>bf_lf_pretas_202404_3_Resultats_v2_1</t>
-  </si>
-  <si>
-    <t>(BF - Apr 2024) Pré TAS FL - 3. Formulaire Résultats V2.1</t>
-  </si>
-  <si>
     <t>Lot1: 238429 Exp : 30/05/2024</t>
   </si>
   <si>
     <t>Lot2: 766673A Exp : 10/08/2024</t>
+  </si>
+  <si>
+    <t>(BF - Apr 2024) Pré TAS FL - 3. Formulaire Résultats V2.2</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_202404_3_Resultats_v2_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,45 +698,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,10 +2362,10 @@
         <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2362,10 +2373,10 @@
         <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2440,7 +2451,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2462,11 +2473,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>183</v>
+      <c r="A2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>160</v>

--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1ACD9E-000E-46D3-B150-D7937A666FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC4E74-7121-4288-812A-8FAF3BEC9365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -570,9 +570,6 @@
     <t>Niorgho</t>
   </si>
   <si>
-    <t>Ouada traditionnel</t>
-  </si>
-  <si>
     <t>Lot1: 238429 Exp : 30/05/2024</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>bf_lf_pretas_202404_3_Resultats_v2_2</t>
+  </si>
+  <si>
+    <t>Ouada Traditionnel</t>
   </si>
 </sst>
 </file>
@@ -1709,9 +1709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1864,10 +1864,10 @@
         <v>165</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>161</v>
@@ -1878,10 +1878,10 @@
         <v>165</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>161</v>
@@ -1906,10 +1906,10 @@
         <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>161</v>
@@ -1920,10 +1920,10 @@
         <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>162</v>
@@ -1934,10 +1934,10 @@
         <v>165</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>162</v>
@@ -1948,10 +1948,10 @@
         <v>165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>162</v>
@@ -1976,10 +1976,10 @@
         <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>162</v>
@@ -1990,13 +1990,13 @@
         <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2004,13 +2004,13 @@
         <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2032,13 +2032,13 @@
         <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2046,13 +2046,13 @@
         <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2060,13 +2060,13 @@
         <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2074,13 +2074,13 @@
         <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2102,13 +2102,13 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2362,10 +2362,10 @@
         <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2373,10 +2373,10 @@
         <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2450,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>160</v>

--- a/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
+++ b/LF/PreTAS/Burkina Faso/2024/bf_lf_pretas_202404_3_Resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC4E74-7121-4288-812A-8FAF3BEC9365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAC98A7-E312-4034-BA1F-764719CEB03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -583,13 +583,25 @@
   </si>
   <si>
     <t>Ouada Traditionnel</t>
+  </si>
+  <si>
+    <t>EN09</t>
+  </si>
+  <si>
+    <t>EN10</t>
+  </si>
+  <si>
+    <t>EN11</t>
+  </si>
+  <si>
+    <t>EN12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +662,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1707,11 +1725,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E32"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1830,103 +1848,91 @@
         <v>112</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>161</v>
+      <c r="A13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1934,13 +1940,13 @@
         <v>165</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1948,13 +1954,13 @@
         <v>165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1962,13 +1968,13 @@
         <v>165</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1976,69 +1982,69 @@
         <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>186</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2046,13 +2052,13 @@
         <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2060,13 +2066,13 @@
         <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2074,13 +2080,13 @@
         <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2088,13 +2094,13 @@
         <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -2102,134 +2108,142 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A33" s="6"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7" t="s">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="15.75">
+      <c r="A37" s="6"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7" t="s">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7" t="s">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -2238,66 +2252,70 @@
         <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2305,10 +2323,10 @@
         <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2316,128 +2334,173 @@
         <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="2">
         <v>2</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C62" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:E38">
-    <sortCondition ref="A27:A38"/>
-    <sortCondition ref="B27:B38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:E42">
+    <sortCondition ref="A31:A42"/>
+    <sortCondition ref="B31:B42"/>
   </sortState>
-  <conditionalFormatting sqref="B24:B25 B27:B29 B31:B33">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B28:B29 B31:B33 B35:B37">
     <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B33">
+  <conditionalFormatting sqref="B28:B37">
     <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B33">
+  <conditionalFormatting sqref="B30:B37">
     <cfRule type="duplicateValues" dxfId="10" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:D25 C27:D29 C31:D33">
+  <conditionalFormatting sqref="C28:D29 C31:D33 C35:D37">
     <cfRule type="duplicateValues" dxfId="9" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:D33">
+  <conditionalFormatting sqref="C28:D37">
     <cfRule type="duplicateValues" dxfId="8" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D33">
+  <conditionalFormatting sqref="C30:D37">
     <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G33">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G36">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H30">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H32">
+  <conditionalFormatting sqref="H30:H36">
     <cfRule type="duplicateValues" dxfId="2" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H37">
     <cfRule type="duplicateValues" dxfId="1" priority="34"/>
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
